--- a/documents/03_ファイル構成一覧表_MYT.xlsx
+++ b/documents/03_ファイル構成一覧表_MYT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\作成ドキュメント\作成ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFEBEC6-5643-4BC2-80CE-50702E4402DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B161A346-C091-4707-A843-6C37FBFAC09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="160">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -367,10 +367,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Talkroom.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Inquiry.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -472,13 +468,6 @@
   </si>
   <si>
     <t>WEBContent/js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トークルームのタイトル・詳細文のデータ</t>
-    <rPh sb="12" eb="15">
-      <t>ショウサイブン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1118,10 +1107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1137,22 +1122,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>後で消す</t>
-    <rPh sb="0" eb="1">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログインユーザー識別用のデータ</t>
     <rPh sb="8" eb="10">
       <t>シキベツ</t>
     </rPh>
     <rPh sb="10" eb="11">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>富樫さん</t>
+    <rPh sb="0" eb="2">
+      <t>トガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八木さん</t>
+    <rPh sb="0" eb="2">
+      <t>ヤギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳さん</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村上さん</t>
+    <rPh sb="0" eb="2">
+      <t>ムラカミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1242,7 +1245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1259,6 +1262,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2623,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2658,10 +2664,10 @@
         <v>8</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
@@ -2682,18 +2688,18 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B62" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B61" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2709,13 +2715,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
@@ -2736,13 +2742,13 @@
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
@@ -2763,7 +2769,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
@@ -2784,7 +2790,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
@@ -2805,7 +2811,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
@@ -2826,7 +2832,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
@@ -2847,7 +2853,7 @@
         <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
@@ -2868,7 +2874,7 @@
         <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
@@ -2889,7 +2895,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
@@ -2910,7 +2916,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
@@ -2931,7 +2937,7 @@
         <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
@@ -2952,7 +2958,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
@@ -2973,7 +2979,7 @@
         <v>41</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -2994,7 +3000,7 @@
         <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -3015,7 +3021,7 @@
         <v>44</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -3036,7 +3042,7 @@
         <v>47</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -3057,7 +3063,7 @@
         <v>49</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -3072,13 +3078,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -3096,10 +3102,10 @@
         <v>50</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -3114,13 +3120,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -3135,13 +3141,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -3156,13 +3162,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -3180,10 +3186,10 @@
         <v>52</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -3198,13 +3204,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -3216,16 +3222,16 @@
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -3240,13 +3246,13 @@
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -3264,10 +3270,10 @@
         <v>59</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -3285,10 +3291,10 @@
         <v>60</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -3306,10 +3312,10 @@
         <v>61</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -3327,10 +3333,10 @@
         <v>62</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -3348,10 +3354,10 @@
         <v>63</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -3369,10 +3375,10 @@
         <v>64</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -3390,10 +3396,10 @@
         <v>65</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -3411,10 +3417,10 @@
         <v>66</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -3426,16 +3432,16 @@
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -3456,7 +3462,7 @@
         <v>97</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -3474,10 +3480,10 @@
         <v>70</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -3492,13 +3498,13 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -3513,13 +3519,13 @@
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -3534,13 +3540,13 @@
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -3549,19 +3555,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -3570,19 +3576,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -3591,19 +3597,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -3612,19 +3618,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -3633,19 +3639,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F48" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>107</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -3654,10 +3660,10 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>108</v>
@@ -3666,7 +3672,7 @@
         <v>109</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -3675,10 +3681,10 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>110</v>
@@ -3687,7 +3693,7 @@
         <v>111</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -3696,10 +3702,10 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>112</v>
@@ -3708,7 +3714,7 @@
         <v>113</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -3717,10 +3723,10 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>114</v>
@@ -3729,7 +3735,7 @@
         <v>115</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -3738,10 +3744,10 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>116</v>
@@ -3750,7 +3756,7 @@
         <v>117</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -3759,10 +3765,10 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>118</v>
@@ -3771,7 +3777,7 @@
         <v>119</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -3780,10 +3786,10 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>120</v>
@@ -3792,7 +3798,7 @@
         <v>121</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -3801,10 +3807,10 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>122</v>
@@ -3813,7 +3819,7 @@
         <v>123</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -3822,10 +3828,10 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>124</v>
@@ -3834,7 +3840,7 @@
         <v>125</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
@@ -3843,10 +3849,10 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>126</v>
@@ -3855,7 +3861,7 @@
         <v>127</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
@@ -3864,10 +3870,10 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>128</v>
@@ -3876,7 +3882,7 @@
         <v>129</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
@@ -3885,10 +3891,10 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>130</v>
@@ -3897,7 +3903,7 @@
         <v>131</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
@@ -3906,61 +3912,61 @@
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B62:B66" si="1">ROW()-2</f>
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
-        <f t="shared" ref="B63:B67" si="1">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
@@ -3969,19 +3975,19 @@
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -3990,19 +3996,19 @@
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
@@ -4011,41 +4017,23 @@
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B67" s="1">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="G67" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4066,7 +4054,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4088,7 +4076,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4099,6 +4087,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4269,22 +4272,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4301,29 +4314,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documents/03_ファイル構成一覧表_MYT.xlsx
+++ b/documents/03_ファイル構成一覧表_MYT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B161A346-C091-4707-A843-6C37FBFAC09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57878219-6C16-436F-9596-F9684E27022A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="162">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -985,10 +985,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>search.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン画面用js</t>
     <rPh sb="4" eb="7">
       <t>ガメンヨウ</t>
@@ -1157,6 +1153,36 @@
     <rPh sb="0" eb="2">
       <t>ムラカミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i_list.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ内容確認画面用jsp</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile_search.js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2627,10 +2653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:K67"/>
+  <dimension ref="B2:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2664,10 +2690,10 @@
         <v>8</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
@@ -2688,18 +2714,18 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B61" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B62" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2715,13 +2741,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
@@ -2742,13 +2768,13 @@
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
@@ -2769,7 +2795,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
@@ -2790,7 +2816,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
@@ -2811,7 +2837,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
@@ -2832,7 +2858,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
@@ -2853,7 +2879,7 @@
         <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
@@ -2874,7 +2900,7 @@
         <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
@@ -2895,7 +2921,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
@@ -2916,7 +2942,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
@@ -2937,7 +2963,7 @@
         <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
@@ -2958,7 +2984,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
@@ -2979,7 +3005,7 @@
         <v>41</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -3000,7 +3026,7 @@
         <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -3021,12 +3047,11 @@
         <v>44</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3036,13 +3061,13 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -3057,10 +3082,10 @@
         <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>153</v>
@@ -3072,19 +3097,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>81</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -3099,13 +3124,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -3120,13 +3145,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -3141,13 +3166,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -3162,10 +3187,10 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>152</v>
@@ -3183,13 +3208,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -3204,13 +3229,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -3222,16 +3247,16 @@
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -3246,13 +3271,13 @@
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -3267,13 +3292,13 @@
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -3288,13 +3313,13 @@
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -3309,13 +3334,13 @@
         <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -3330,13 +3355,13 @@
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -3351,13 +3376,13 @@
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -3372,13 +3397,13 @@
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -3393,10 +3418,10 @@
         <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>152</v>
@@ -3414,13 +3439,13 @@
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -3432,16 +3457,16 @@
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -3456,13 +3481,13 @@
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -3477,13 +3502,13 @@
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -3498,13 +3523,13 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -3519,13 +3544,13 @@
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -3540,13 +3565,13 @@
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -3555,19 +3580,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -3582,13 +3607,13 @@
         <v>74</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -3603,13 +3628,13 @@
         <v>74</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -3624,13 +3649,13 @@
         <v>74</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -3645,13 +3670,13 @@
         <v>74</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -3666,13 +3691,13 @@
         <v>74</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -3687,13 +3712,13 @@
         <v>74</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -3708,13 +3733,13 @@
         <v>74</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -3729,13 +3754,13 @@
         <v>74</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -3750,13 +3775,13 @@
         <v>74</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -3771,13 +3796,13 @@
         <v>74</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -3792,13 +3817,13 @@
         <v>74</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -3813,13 +3838,13 @@
         <v>74</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -3834,13 +3859,13 @@
         <v>74</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
@@ -3855,13 +3880,13 @@
         <v>74</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
@@ -3876,13 +3901,13 @@
         <v>74</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
@@ -3897,13 +3922,13 @@
         <v>74</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
@@ -3918,39 +3943,39 @@
         <v>74</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
-        <f t="shared" ref="B62:B66" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B63:B67" si="1">ROW()-2</f>
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -3960,13 +3985,13 @@
         <v>76</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
@@ -3981,13 +4006,13 @@
         <v>76</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -4002,10 +4027,10 @@
         <v>76</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>152</v>
@@ -4023,17 +4048,38 @@
         <v>76</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G67" s="6"/>
+      <c r="B67" s="1">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G68" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/03_ファイル構成一覧表_MYT.xlsx
+++ b/documents/03_ファイル構成一覧表_MYT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57878219-6C16-436F-9596-F9684E27022A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F345BC-E3B5-469A-8A66-450E542392F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -2655,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4133,18 +4133,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4319,6 +4319,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4331,14 +4339,6 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/03_ファイル構成一覧表_MYT.xlsx
+++ b/documents/03_ファイル構成一覧表_MYT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F345BC-E3B5-469A-8A66-450E542392F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46918D1-55EF-4035-9128-9F33433E4D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="165">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1183,6 +1183,24 @@
   </si>
   <si>
     <t>profile_search.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森山</t>
+    <rPh sb="0" eb="2">
+      <t>モリヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>峰さん</t>
+    <rPh sb="0" eb="1">
+      <t>ミネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inquiry.js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2655,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2900,7 +2918,7 @@
         <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
@@ -2921,7 +2939,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
@@ -2942,7 +2960,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
@@ -2963,7 +2981,7 @@
         <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
@@ -2984,7 +3002,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
@@ -3109,7 +3127,7 @@
         <v>49</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -3172,7 +3190,7 @@
         <v>77</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -3193,7 +3211,7 @@
         <v>78</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -3235,7 +3253,7 @@
         <v>80</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -3382,7 +3400,7 @@
         <v>87</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -3403,7 +3421,7 @@
         <v>88</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -3424,7 +3442,7 @@
         <v>89</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -3487,7 +3505,7 @@
         <v>95</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -3508,7 +3526,7 @@
         <v>97</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -3529,7 +3547,7 @@
         <v>96</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -4048,7 +4066,7 @@
         <v>76</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>141</v>
@@ -4133,18 +4151,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4319,14 +4337,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4339,6 +4349,14 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/03_ファイル構成一覧表_MYT.xlsx
+++ b/documents/03_ファイル構成一覧表_MYT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46918D1-55EF-4035-9128-9F33433E4D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C1D392-C1A4-40A9-80E9-50129913A8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="173">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1201,6 +1201,62 @@
   </si>
   <si>
     <t>inquiry.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TalkroomDetailServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トークルーム詳細画面用</t>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※14日追加</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>talk_detail1.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>talk_detail2.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>talk_detail3.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BbsListServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド一覧画面用</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2671,17 +2727,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:K68"/>
+  <dimension ref="B2:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
     <col min="6" max="6" width="58.875" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="10" max="10" width="15.25" customWidth="1"/>
@@ -2743,7 +2799,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B62" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2860,7 +2916,6 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2870,18 +2925,17 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2891,18 +2945,17 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2912,13 +2965,13 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
@@ -2933,13 +2986,13 @@
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
@@ -2953,14 +3006,14 @@
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>35</v>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
@@ -2974,14 +3027,14 @@
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>37</v>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
@@ -2995,14 +3048,14 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>39</v>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
@@ -3017,13 +3070,13 @@
         <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -3038,13 +3091,13 @@
         <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -3059,17 +3112,18 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3079,13 +3133,13 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -3100,13 +3154,13 @@
         <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -3121,34 +3175,33 @@
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>81</v>
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -3157,19 +3210,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>154</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -3178,19 +3231,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>77</v>
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -3205,13 +3258,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -3226,13 +3279,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -3247,13 +3300,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -3268,13 +3321,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -3286,16 +3339,16 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -3307,16 +3360,16 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -3328,16 +3381,16 @@
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -3352,13 +3405,13 @@
         <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -3373,13 +3426,13 @@
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -3394,13 +3447,13 @@
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -3415,19 +3468,18 @@
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -3436,13 +3488,13 @@
         <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -3457,13 +3509,13 @@
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -3478,31 +3530,30 @@
         <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
-        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>162</v>
@@ -3517,13 +3568,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>163</v>
@@ -3538,13 +3589,13 @@
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>163</v>
@@ -3559,16 +3610,16 @@
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -3580,13 +3631,13 @@
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>155</v>
@@ -3604,13 +3655,13 @@
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -3619,19 +3670,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -3640,19 +3691,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -3661,19 +3712,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -3682,19 +3733,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>105</v>
+        <v>67</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -3703,19 +3754,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -3730,10 +3781,10 @@
         <v>74</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>153</v>
@@ -3751,10 +3802,10 @@
         <v>74</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>153</v>
@@ -3772,10 +3823,10 @@
         <v>74</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>153</v>
@@ -3793,10 +3844,10 @@
         <v>74</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>153</v>
@@ -3814,10 +3865,10 @@
         <v>74</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>153</v>
@@ -3835,10 +3886,10 @@
         <v>74</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>153</v>
@@ -3856,10 +3907,10 @@
         <v>74</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>153</v>
@@ -3877,10 +3928,10 @@
         <v>74</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>153</v>
@@ -3898,10 +3949,10 @@
         <v>74</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>153</v>
@@ -3919,10 +3970,10 @@
         <v>74</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>153</v>
@@ -3940,10 +3991,10 @@
         <v>74</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>153</v>
@@ -3961,10 +4012,10 @@
         <v>74</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>153</v>
@@ -3982,10 +4033,10 @@
         <v>74</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>153</v>
@@ -3993,111 +4044,216 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
-        <f t="shared" ref="B63:B67" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B68" s="1">
+        <f t="shared" ref="B68:B72" si="1">ROW()-2</f>
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B69" s="1">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B70" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B71" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B72" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G68" s="6"/>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G73" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4151,18 +4307,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4337,6 +4493,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4349,14 +4513,6 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/03_ファイル構成一覧表_MYT.xlsx
+++ b/documents/03_ファイル構成一覧表_MYT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C1D392-C1A4-40A9-80E9-50129913A8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A034A488-C30E-4928-AB05-DEBD6CA051B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="4830" yWindow="810" windowWidth="15375" windowHeight="8715" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="181">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -407,10 +407,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>profileServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BbsServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1257,6 +1253,72 @@
     <rPh sb="8" eb="9">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果画面用のデータ</t>
+    <rPh sb="0" eb="4">
+      <t>ケッカガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BbsDetailServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド詳細画面用</t>
+    <rPh sb="4" eb="8">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InquiryListServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ一覧画面用</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogoutServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト用</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProfileServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2727,10 +2789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:K73"/>
+  <dimension ref="B2:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2764,10 +2826,10 @@
         <v>8</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
@@ -2788,18 +2850,18 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B71" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2815,13 +2877,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
@@ -2842,13 +2904,13 @@
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
@@ -2869,7 +2931,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
@@ -2890,7 +2952,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
@@ -2911,7 +2973,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
@@ -2925,13 +2987,13 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
@@ -2945,13 +3007,13 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
@@ -2965,13 +3027,13 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
@@ -2992,7 +3054,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
@@ -3013,7 +3075,7 @@
         <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
@@ -3034,7 +3096,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
@@ -3055,7 +3117,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
@@ -3076,7 +3138,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -3097,7 +3159,7 @@
         <v>37</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -3118,7 +3180,7 @@
         <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -3139,7 +3201,7 @@
         <v>41</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -3160,7 +3222,7 @@
         <v>43</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -3181,7 +3243,7 @@
         <v>44</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -3195,13 +3257,13 @@
         <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -3222,7 +3284,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -3243,7 +3305,7 @@
         <v>49</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -3261,10 +3323,10 @@
         <v>54</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -3282,10 +3344,10 @@
         <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -3303,10 +3365,10 @@
         <v>55</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -3324,10 +3386,10 @@
         <v>53</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -3345,10 +3407,10 @@
         <v>51</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -3366,10 +3428,10 @@
         <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -3387,32 +3449,29 @@
         <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
@@ -3426,18 +3485,17 @@
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3447,14 +3505,12 @@
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
@@ -3468,18 +3524,19 @@
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -3488,13 +3545,13 @@
         <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -3509,19 +3566,18 @@
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -3530,17 +3586,18 @@
         <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -3550,13 +3607,13 @@
         <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -3571,19 +3628,18 @@
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -3592,19 +3648,18 @@
         <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -3613,14 +3668,12 @@
         <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
@@ -3634,13 +3687,13 @@
         <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -3652,13 +3705,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>162</v>
@@ -3673,38 +3726,35 @@
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
@@ -3715,16 +3765,16 @@
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -3742,10 +3792,10 @@
         <v>67</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -3760,13 +3810,13 @@
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -3775,19 +3825,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -3796,19 +3846,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -3817,19 +3867,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -3838,19 +3888,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>105</v>
+        <v>70</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -3859,19 +3909,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -3880,19 +3930,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -3901,19 +3951,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -3922,19 +3972,19 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
@@ -3943,19 +3993,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
@@ -3964,19 +4014,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
@@ -3985,19 +4035,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
@@ -4006,19 +4056,19 @@
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
@@ -4027,19 +4077,19 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
@@ -4048,19 +4098,19 @@
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
@@ -4069,19 +4119,19 @@
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -4090,19 +4140,19 @@
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
@@ -4111,19 +4161,19 @@
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
@@ -4132,79 +4182,79 @@
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E67" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
-        <f t="shared" ref="B68:B72" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>152</v>
@@ -4212,48 +4262,132 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
+        <f t="shared" ref="B72:B76" si="1">ROW()-2</f>
+        <v>70</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B73" s="1">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="C72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G73" s="6"/>
+      <c r="E73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B74" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B75" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B76" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G77" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4307,18 +4441,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4493,14 +4627,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4513,6 +4639,14 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/03_ファイル構成一覧表_MYT.xlsx
+++ b/documents/03_ファイル構成一覧表_MYT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A034A488-C30E-4928-AB05-DEBD6CA051B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E6C871-A0E3-4C3D-8D72-AB8BC32BBF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="810" windowWidth="15375" windowHeight="8715" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="183">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -241,19 +241,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>掲示板一覧画面jsp</t>
-    <rPh sb="0" eb="3">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bbs_detail.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1319,6 +1306,30 @@
   </si>
   <si>
     <t>ProfileServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbs_searchresult.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドの検索結果画面jsp</t>
+    <rPh sb="5" eb="9">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド一覧画面jsp</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2789,10 +2800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:K77"/>
+  <dimension ref="B2:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2826,10 +2837,10 @@
         <v>8</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
@@ -2850,18 +2861,18 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B71" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B72" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2877,13 +2888,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
@@ -2904,13 +2915,13 @@
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
@@ -2931,7 +2942,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
@@ -2952,7 +2963,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
@@ -2973,7 +2984,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
@@ -2987,13 +2998,13 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
@@ -3007,13 +3018,13 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
@@ -3027,13 +3038,13 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
@@ -3054,7 +3065,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
@@ -3075,7 +3086,7 @@
         <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
@@ -3096,7 +3107,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
@@ -3114,15 +3125,14 @@
         <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3131,14 +3141,14 @@
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>35</v>
+      <c r="E16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -3153,13 +3163,13 @@
         <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -3174,13 +3184,13 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -3195,13 +3205,13 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -3216,13 +3226,13 @@
         <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -3237,18 +3247,19 @@
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
@@ -3257,19 +3268,18 @@
         <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
@@ -3278,13 +3288,13 @@
         <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -3299,13 +3309,13 @@
         <v>12</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -3314,19 +3324,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -3341,13 +3351,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -3362,13 +3372,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -3383,13 +3393,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -3404,13 +3414,13 @@
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -3425,13 +3435,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -3446,17 +3456,18 @@
         <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3466,36 +3477,36 @@
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3505,17 +3516,18 @@
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -3524,14 +3536,12 @@
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
@@ -3545,13 +3555,13 @@
         <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -3566,18 +3576,19 @@
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -3586,19 +3597,18 @@
         <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -3607,13 +3617,13 @@
         <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -3628,18 +3638,19 @@
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -3648,18 +3659,18 @@
         <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -3668,17 +3679,18 @@
         <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -3687,14 +3699,12 @@
         <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>162</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
@@ -3708,13 +3718,13 @@
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -3729,18 +3739,19 @@
         <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -3749,17 +3760,18 @@
         <v>5</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G46" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -3768,14 +3780,12 @@
         <v>5</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
@@ -3786,16 +3796,16 @@
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -3810,13 +3820,13 @@
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -3831,13 +3841,13 @@
         <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -3852,13 +3862,13 @@
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -3873,13 +3883,13 @@
         <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -3894,13 +3904,13 @@
         <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -3909,19 +3919,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -3930,19 +3940,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -3951,19 +3961,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -3972,19 +3982,19 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="G57" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
@@ -3993,19 +4003,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
@@ -4014,19 +4024,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
@@ -4035,19 +4045,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
@@ -4056,19 +4066,19 @@
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
@@ -4077,19 +4087,19 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
@@ -4098,19 +4108,19 @@
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
@@ -4119,19 +4129,19 @@
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -4140,19 +4150,19 @@
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
@@ -4161,19 +4171,19 @@
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
@@ -4182,19 +4192,19 @@
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E67" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
@@ -4203,19 +4213,19 @@
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
@@ -4224,19 +4234,19 @@
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E69" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
@@ -4245,19 +4255,19 @@
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E70" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
@@ -4266,61 +4276,61 @@
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
-        <f t="shared" ref="B72:B76" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B73:B77" si="1">ROW()-2</f>
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.4">
@@ -4329,19 +4339,19 @@
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.4">
@@ -4350,16 +4360,16 @@
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>150</v>
@@ -4371,23 +4381,44 @@
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B77" s="1">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G77" s="6"/>
+      <c r="C77" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G78" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4408,7 +4439,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4430,7 +4461,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4441,18 +4472,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4627,6 +4658,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4639,14 +4678,6 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/03_ファイル構成一覧表_MYT.xlsx
+++ b/documents/03_ファイル構成一覧表_MYT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E6C871-A0E3-4C3D-8D72-AB8BC32BBF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB92E530-8A10-4172-A7F4-4B1D58B66901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="185">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1329,6 +1329,26 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProfileListServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己紹介一覧画面用</t>
+    <rPh sb="0" eb="4">
+      <t>ジコショウカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2800,10 +2820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:K78"/>
+  <dimension ref="B2:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2872,7 +2892,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B72" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B73" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3649,7 +3669,6 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -3659,18 +3678,17 @@
         <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -3679,10 +3697,10 @@
         <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>160</v>
@@ -3690,7 +3708,7 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -3699,17 +3717,18 @@
         <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -3718,14 +3737,12 @@
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
@@ -3739,10 +3756,10 @@
         <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>161</v>
@@ -3760,18 +3777,19 @@
         <v>5</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -3780,17 +3798,18 @@
         <v>5</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G47" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -3799,14 +3818,12 @@
         <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
@@ -3817,16 +3834,16 @@
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -3841,13 +3858,13 @@
         <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -3862,10 +3879,10 @@
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>161</v>
@@ -3883,13 +3900,13 @@
         <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -3904,13 +3921,13 @@
         <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -3925,13 +3942,13 @@
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -3940,19 +3957,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -3967,10 +3984,10 @@
         <v>72</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>151</v>
@@ -3988,10 +4005,10 @@
         <v>72</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>151</v>
@@ -4009,10 +4026,10 @@
         <v>72</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>151</v>
@@ -4030,10 +4047,10 @@
         <v>72</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>151</v>
@@ -4051,10 +4068,10 @@
         <v>72</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>151</v>
@@ -4072,10 +4089,10 @@
         <v>72</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>151</v>
@@ -4093,10 +4110,10 @@
         <v>72</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>151</v>
@@ -4114,10 +4131,10 @@
         <v>72</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>151</v>
@@ -4135,10 +4152,10 @@
         <v>72</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>151</v>
@@ -4156,10 +4173,10 @@
         <v>72</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>151</v>
@@ -4177,10 +4194,10 @@
         <v>72</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>151</v>
@@ -4198,10 +4215,10 @@
         <v>72</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>151</v>
@@ -4219,10 +4236,10 @@
         <v>72</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>151</v>
@@ -4240,10 +4257,10 @@
         <v>72</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>151</v>
@@ -4261,10 +4278,10 @@
         <v>72</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>151</v>
@@ -4282,10 +4299,10 @@
         <v>72</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>151</v>
@@ -4303,10 +4320,10 @@
         <v>72</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>151</v>
@@ -4314,28 +4331,28 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
-        <f t="shared" ref="B73:B77" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B74:B78" si="1">ROW()-2</f>
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -4345,13 +4362,13 @@
         <v>74</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.4">
@@ -4366,13 +4383,13 @@
         <v>74</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.4">
@@ -4387,13 +4404,13 @@
         <v>74</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.4">
@@ -4408,17 +4425,38 @@
         <v>74</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B78" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G78" s="6"/>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G79" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4472,18 +4510,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4658,14 +4696,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4678,6 +4708,14 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/03_ファイル構成一覧表_MYT.xlsx
+++ b/documents/03_ファイル構成一覧表_MYT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB92E530-8A10-4172-A7F4-4B1D58B66901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9B33B9-0264-4E1C-A6F7-B9DB95CAE210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="187">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -930,10 +930,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bbscommon.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>掲示板機能内での共通CSS</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
@@ -1348,6 +1344,21 @@
       <t>ガメン</t>
     </rPh>
     <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbs_common.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー用CSS</t>
+    <rPh sb="4" eb="5">
       <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2820,10 +2831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:K79"/>
+  <dimension ref="B2:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2857,10 +2868,10 @@
         <v>8</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
@@ -2881,18 +2892,18 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B73" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B74" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2908,13 +2919,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
@@ -2935,13 +2946,13 @@
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
@@ -2962,7 +2973,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
@@ -2983,7 +2994,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
@@ -3004,7 +3015,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
@@ -3018,13 +3029,13 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
@@ -3038,13 +3049,13 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
@@ -3058,13 +3069,13 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
@@ -3085,7 +3096,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
@@ -3106,7 +3117,7 @@
         <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
@@ -3127,7 +3138,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
@@ -3145,10 +3156,10 @@
         <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
@@ -3162,13 +3173,13 @@
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -3189,7 +3200,7 @@
         <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -3210,7 +3221,7 @@
         <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -3231,7 +3242,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -3252,7 +3263,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -3273,7 +3284,7 @@
         <v>42</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -3294,7 +3305,7 @@
         <v>43</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -3308,13 +3319,13 @@
         <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -3335,7 +3346,7 @@
         <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -3356,7 +3367,7 @@
         <v>48</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -3377,7 +3388,7 @@
         <v>79</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -3395,10 +3406,10 @@
         <v>49</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -3419,7 +3430,7 @@
         <v>75</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -3440,7 +3451,7 @@
         <v>76</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -3461,7 +3472,7 @@
         <v>77</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -3482,7 +3493,7 @@
         <v>78</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -3500,10 +3511,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -3517,10 +3528,10 @@
         <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -3542,7 +3553,7 @@
         <v>80</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -3556,10 +3567,10 @@
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -3581,7 +3592,7 @@
         <v>81</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -3602,7 +3613,7 @@
         <v>82</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -3623,7 +3634,7 @@
         <v>83</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -3637,13 +3648,13 @@
         <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -3658,13 +3669,13 @@
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -3678,10 +3689,10 @@
         <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -3703,7 +3714,7 @@
         <v>85</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -3717,13 +3728,13 @@
         <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -3737,10 +3748,10 @@
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -3762,7 +3773,7 @@
         <v>86</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -3783,7 +3794,7 @@
         <v>87</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -3804,7 +3815,7 @@
         <v>88</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -3818,10 +3829,10 @@
         <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -3843,7 +3854,7 @@
         <v>89</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -3864,7 +3875,7 @@
         <v>93</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -3885,7 +3896,7 @@
         <v>95</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -3906,7 +3917,7 @@
         <v>94</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -3927,7 +3938,7 @@
         <v>90</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -3948,7 +3959,7 @@
         <v>91</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -3969,7 +3980,7 @@
         <v>92</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -3990,12 +4001,11 @@
         <v>99</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
-        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4005,14 +4015,12 @@
         <v>72</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
@@ -4026,13 +4034,13 @@
         <v>72</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
@@ -4047,13 +4055,13 @@
         <v>72</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
@@ -4068,13 +4076,13 @@
         <v>72</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
@@ -4089,13 +4097,13 @@
         <v>72</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
@@ -4110,13 +4118,13 @@
         <v>72</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
@@ -4131,13 +4139,13 @@
         <v>72</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
@@ -4152,13 +4160,13 @@
         <v>72</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -4173,13 +4181,13 @@
         <v>72</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
@@ -4194,13 +4202,13 @@
         <v>72</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
@@ -4215,13 +4223,13 @@
         <v>72</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
@@ -4236,13 +4244,13 @@
         <v>72</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
@@ -4257,13 +4265,13 @@
         <v>72</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
@@ -4278,13 +4286,13 @@
         <v>72</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
@@ -4299,13 +4307,13 @@
         <v>72</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
@@ -4320,13 +4328,13 @@
         <v>72</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.4">
@@ -4341,39 +4349,39 @@
         <v>72</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
-        <f t="shared" ref="B74:B78" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B75:B79" si="1">ROW()-2</f>
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -4383,13 +4391,13 @@
         <v>74</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.4">
@@ -4404,13 +4412,13 @@
         <v>74</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.4">
@@ -4425,10 +4433,10 @@
         <v>74</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>149</v>
@@ -4446,17 +4454,38 @@
         <v>74</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G79" s="6"/>
+      <c r="B79" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G80" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4510,21 +4539,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4695,32 +4709,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4737,4 +4741,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documents/03_ファイル構成一覧表_MYT.xlsx
+++ b/documents/03_ファイル構成一覧表_MYT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9B33B9-0264-4E1C-A6F7-B9DB95CAE210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8B263F-4AD0-4318-B049-9ACBB6F12C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="4590" yWindow="795" windowWidth="15375" windowHeight="8715" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="193">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1359,6 +1359,51 @@
   <si>
     <t>ヘッダー用CSS</t>
     <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BbsCategoryServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドのカテゴリー別検索用</t>
+    <rPh sb="10" eb="11">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BbsDraftServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドの下書き用</t>
+    <rPh sb="5" eb="7">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbs_category.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー検索用js</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
       <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2831,10 +2876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:K80"/>
+  <dimension ref="B2:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2903,7 +2948,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B74" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B76" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3310,7 +3355,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
@@ -3519,7 +3564,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -3799,7 +3844,6 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -3809,18 +3853,16 @@
         <v>5</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -3829,10 +3871,10 @@
         <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -3848,35 +3890,32 @@
         <v>5</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
@@ -3887,16 +3926,16 @@
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -3911,13 +3950,13 @@
         <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -3932,13 +3971,13 @@
         <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -3953,13 +3992,13 @@
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -3974,13 +4013,13 @@
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -3989,38 +4028,41 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
@@ -4034,10 +4076,10 @@
         <v>72</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>150</v>
@@ -4045,8 +4087,7 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>71</v>
@@ -4055,14 +4096,12 @@
         <v>72</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
@@ -4076,10 +4115,10 @@
         <v>72</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>150</v>
@@ -4097,10 +4136,10 @@
         <v>72</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>150</v>
@@ -4118,10 +4157,10 @@
         <v>72</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>150</v>
@@ -4139,10 +4178,10 @@
         <v>72</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>150</v>
@@ -4160,10 +4199,10 @@
         <v>72</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>150</v>
@@ -4181,10 +4220,10 @@
         <v>72</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>150</v>
@@ -4202,10 +4241,10 @@
         <v>72</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>150</v>
@@ -4223,10 +4262,10 @@
         <v>72</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>150</v>
@@ -4244,10 +4283,10 @@
         <v>72</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>150</v>
@@ -4265,10 +4304,10 @@
         <v>72</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>150</v>
@@ -4286,10 +4325,10 @@
         <v>72</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>150</v>
@@ -4307,10 +4346,10 @@
         <v>72</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>150</v>
@@ -4328,10 +4367,10 @@
         <v>72</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>150</v>
@@ -4349,10 +4388,10 @@
         <v>72</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>150</v>
@@ -4370,10 +4409,10 @@
         <v>72</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>150</v>
@@ -4381,49 +4420,49 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
-        <f t="shared" ref="B75:B79" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B77:B82" si="1">ROW()-2</f>
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -4433,13 +4472,13 @@
         <v>74</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.4">
@@ -4454,13 +4493,13 @@
         <v>74</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.4">
@@ -4475,17 +4514,77 @@
         <v>74</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B80" s="1">
+        <v>78</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B81" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B82" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G80" s="6"/>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G83" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4539,6 +4638,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4709,15 +4817,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4725,6 +4824,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4739,14 +4846,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/03_ファイル構成一覧表_MYT.xlsx
+++ b/documents/03_ファイル構成一覧表_MYT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8B263F-4AD0-4318-B049-9ACBB6F12C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E275F2E-863F-47DD-8DDE-F81CF5157CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="795" windowWidth="15375" windowHeight="8715" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="195">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1405,6 +1405,29 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbs_nonediter.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド作成者以外が編集をしようとすると遷移する画面jsp</t>
+    <rPh sb="4" eb="7">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2876,10 +2899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:K83"/>
+  <dimension ref="B2:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2948,7 +2971,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B76" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B77" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3292,7 +3315,6 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3302,14 +3324,12 @@
         <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
@@ -3323,13 +3343,13 @@
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -3344,10 +3364,10 @@
         <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>153</v>
@@ -3355,6 +3375,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3364,10 +3385,10 @@
         <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>153</v>
@@ -3375,8 +3396,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
@@ -3385,13 +3405,13 @@
         <v>12</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -3406,10 +3426,10 @@
         <v>12</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>150</v>
@@ -3421,19 +3441,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -3448,10 +3468,10 @@
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>152</v>
@@ -3469,13 +3489,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -3490,13 +3510,13 @@
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -3511,13 +3531,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -3532,13 +3552,13 @@
         <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -3553,17 +3573,18 @@
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3573,37 +3594,37 @@
         <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -3612,17 +3633,18 @@
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -3631,14 +3653,12 @@
         <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
@@ -3652,13 +3672,13 @@
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -3673,10 +3693,10 @@
         <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>148</v>
@@ -3684,7 +3704,8 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -3693,19 +3714,18 @@
         <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -3714,17 +3734,18 @@
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -3734,17 +3755,18 @@
         <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -3753,18 +3775,17 @@
         <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -3773,10 +3794,10 @@
         <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>159</v>
@@ -3784,7 +3805,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -3793,17 +3814,18 @@
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -3812,14 +3834,12 @@
         <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
@@ -3833,10 +3853,10 @@
         <v>5</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>160</v>
@@ -3844,6 +3864,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -3853,16 +3874,18 @@
         <v>5</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G47" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -3871,17 +3894,16 @@
         <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -3890,18 +3912,17 @@
         <v>5</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -3910,17 +3931,18 @@
         <v>5</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -3929,14 +3951,12 @@
         <v>5</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
@@ -3947,16 +3967,16 @@
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -3971,13 +3991,13 @@
         <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -3992,10 +4012,10 @@
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>160</v>
@@ -4013,13 +4033,13 @@
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -4034,13 +4054,13 @@
         <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -4055,13 +4075,13 @@
         <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
@@ -4070,24 +4090,25 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>71</v>
@@ -4096,17 +4117,18 @@
         <v>72</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>71</v>
@@ -4115,14 +4137,12 @@
         <v>72</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
@@ -4136,10 +4156,10 @@
         <v>72</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>150</v>
@@ -4157,10 +4177,10 @@
         <v>72</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>150</v>
@@ -4178,10 +4198,10 @@
         <v>72</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>150</v>
@@ -4199,10 +4219,10 @@
         <v>72</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>150</v>
@@ -4220,10 +4240,10 @@
         <v>72</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>150</v>
@@ -4241,10 +4261,10 @@
         <v>72</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>150</v>
@@ -4262,10 +4282,10 @@
         <v>72</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>150</v>
@@ -4283,10 +4303,10 @@
         <v>72</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>150</v>
@@ -4304,10 +4324,10 @@
         <v>72</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>150</v>
@@ -4325,10 +4345,10 @@
         <v>72</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>150</v>
@@ -4346,10 +4366,10 @@
         <v>72</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>150</v>
@@ -4367,10 +4387,10 @@
         <v>72</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>150</v>
@@ -4388,10 +4408,10 @@
         <v>72</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>150</v>
@@ -4409,10 +4429,10 @@
         <v>72</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>150</v>
@@ -4430,10 +4450,10 @@
         <v>72</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>150</v>
@@ -4451,10 +4471,10 @@
         <v>72</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>150</v>
@@ -4462,28 +4482,28 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
-        <f t="shared" ref="B77:B82" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B78:B83" si="1">ROW()-2</f>
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -4493,13 +4513,13 @@
         <v>74</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.4">
@@ -4514,17 +4534,18 @@
         <v>74</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -4534,17 +4555,18 @@
         <v>74</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G80" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>73</v>
@@ -4553,14 +4575,12 @@
         <v>74</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G81" s="1"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
@@ -4574,17 +4594,38 @@
         <v>74</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B83" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G83" s="6"/>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G84" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4638,15 +4679,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4817,6 +4849,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4824,14 +4865,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4846,6 +4879,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/03_ファイル構成一覧表_MYT.xlsx
+++ b/documents/03_ファイル構成一覧表_MYT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E275F2E-863F-47DD-8DDE-F81CF5157CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731B544E-F946-41CF-BCB9-7CB4674F83D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="201">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1429,6 +1429,48 @@
     <rPh sb="24" eb="26">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBSt.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索ワードのデータ</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BbsWCServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果からのカテゴリー別検索用</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BbsEditServlet2.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BbsDetailServlet2.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2899,10 +2941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:K84"/>
+  <dimension ref="B2:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2971,7 +3013,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B77" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B12" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3088,6 +3130,7 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3108,6 +3151,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3128,6 +3172,7 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3169,7 +3214,7 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B4:B81" si="1">ROW()-2</f>
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3190,7 +3235,7 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3211,7 +3256,7 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3232,6 +3277,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3252,7 +3298,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3273,7 +3319,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3294,7 +3340,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3315,6 +3361,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3329,11 +3376,13 @@
       <c r="F20" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3354,7 +3403,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3375,7 +3424,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3396,7 +3445,8 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
@@ -3416,7 +3466,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3437,7 +3487,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3458,7 +3508,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3479,7 +3529,7 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3500,7 +3550,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3521,7 +3571,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -3531,18 +3581,18 @@
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3552,18 +3602,18 @@
         <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3573,18 +3623,18 @@
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3594,18 +3644,19 @@
         <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -3614,37 +3665,38 @@
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -3653,16 +3705,18 @@
         <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G36" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3672,18 +3726,16 @@
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3693,18 +3745,18 @@
         <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -3714,10 +3766,10 @@
         <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>148</v>
@@ -3725,7 +3777,8 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -3734,18 +3787,18 @@
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -3755,18 +3808,19 @@
         <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -3775,16 +3829,18 @@
         <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -3794,18 +3850,17 @@
         <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -3814,10 +3869,10 @@
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>159</v>
@@ -3825,7 +3880,8 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -3834,16 +3890,18 @@
         <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G45" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -3853,10 +3911,10 @@
         <v>5</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>160</v>
@@ -3864,7 +3922,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -3874,18 +3932,15 @@
         <v>5</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -3894,16 +3949,19 @@
         <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G48" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -3912,16 +3970,14 @@
         <v>5</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -3931,18 +3987,19 @@
         <v>5</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -3951,16 +4008,18 @@
         <v>5</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -3970,102 +4029,100 @@
         <v>5</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4075,18 +4132,18 @@
         <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -4096,99 +4153,102 @@
         <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
-        <v>55</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G60" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -4198,10 +4258,10 @@
         <v>72</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>150</v>
@@ -4209,7 +4269,7 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -4219,18 +4279,16 @@
         <v>72</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -4240,10 +4298,10 @@
         <v>72</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>150</v>
@@ -4251,7 +4309,7 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -4261,10 +4319,10 @@
         <v>72</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>150</v>
@@ -4272,7 +4330,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -4282,10 +4340,10 @@
         <v>72</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>150</v>
@@ -4293,7 +4351,7 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -4303,10 +4361,10 @@
         <v>72</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>150</v>
@@ -4314,7 +4372,7 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -4324,10 +4382,10 @@
         <v>72</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>150</v>
@@ -4335,7 +4393,7 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -4345,10 +4403,10 @@
         <v>72</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>150</v>
@@ -4356,7 +4414,7 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -4366,10 +4424,10 @@
         <v>72</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>150</v>
@@ -4377,7 +4435,7 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -4387,10 +4445,10 @@
         <v>72</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>150</v>
@@ -4398,7 +4456,7 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -4408,10 +4466,10 @@
         <v>72</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>150</v>
@@ -4419,7 +4477,7 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -4429,10 +4487,10 @@
         <v>72</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>150</v>
@@ -4440,7 +4498,7 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -4450,10 +4508,10 @@
         <v>72</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>150</v>
@@ -4461,7 +4519,7 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -4471,10 +4529,10 @@
         <v>72</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>150</v>
@@ -4482,7 +4540,7 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -4492,10 +4550,10 @@
         <v>72</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>150</v>
@@ -4503,23 +4561,23 @@
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
-        <f t="shared" ref="B78:B83" si="1">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.4">
@@ -4528,19 +4586,19 @@
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.4">
@@ -4549,42 +4607,45 @@
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
-        <v>78</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G81" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B82:B87" si="2">ROW()-2</f>
         <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -4594,18 +4655,18 @@
         <v>74</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -4615,17 +4676,101 @@
         <v>74</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B84" s="1">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B85" s="1">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B86" s="1">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B87" s="1">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G84" s="6"/>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G88" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
